--- a/biology/Zoologie/Idaea_macilentaria/Idaea_macilentaria.xlsx
+++ b/biology/Zoologie/Idaea_macilentaria/Idaea_macilentaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidalie maigre
 Idaea macilentaria, l’Acidalie maigre, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Sterrhinae, de la tribu des Sterrhini, et du genre Idaea.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a une envergure de 22-25 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Dans toute l'Europe.
@@ -575,11 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes volent (en plusieurs générations) d'avril à septembre[1].
-Alimentation
-Polyphages, les larves se nourrissent sur diverses plantes comme les renouées, les pissenlits, le mouron des oiseaux, des Prunus...
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes volent (en plusieurs générations) d'avril à septembre.
 </t>
         </is>
       </c>
@@ -605,16 +621,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyphages, les larves se nourrissent sur diverses plantes comme les renouées, les pissenlits, le mouron des oiseaux, des Prunus...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste allemand Gottlieb August Wilhelm Herrich-Schäffer en 1847 sous le nom initial d'Idaea antiquaria Herrich-Schäffer, 1847[2]
-Synonymie
-Idaea antiquaria Herrich-Schäffer, 1847 Protonyme
-Nom vernaculaire
-Acidalie maigre en français.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste allemand Gottlieb August Wilhelm Herrich-Schäffer en 1847 sous le nom initial d'Idaea antiquaria Herrich-Schäffer, 1847
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Idaea antiquaria Herrich-Schäffer, 1847 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idaea_macilentaria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Acidalie maigre en français.</t>
         </is>
       </c>
     </row>
